--- a/Resultados/Resultados.xlsx
+++ b/Resultados/Resultados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de8f8ed30de93035/TG3/TG/Resultados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinic\OneDrive\TG3\TG\Resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t>UDP</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>TCP</t>
+  </si>
+  <si>
+    <t>Transmissão de 0 para 7</t>
+  </si>
+  <si>
+    <t>Transmissão de: (0 para 7) e (1 para 6)</t>
   </si>
 </sst>
 </file>
@@ -83,7 +89,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,8 +126,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -144,15 +156,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -169,6 +228,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -485,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,154 +575,258 @@
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="1" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="7" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B4" s="8">
         <v>1742.98</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C4" s="8">
         <v>2157.2800000000002</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D4" s="8">
         <v>1737.4</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H4" s="8">
         <v>11268.17</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I4" s="8">
         <v>15762.48</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J4" s="8">
         <v>12253.9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B5" s="8">
         <v>18.4147</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C5" s="8">
         <v>17.833100000000002</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D5" s="8">
         <v>18.270299999999999</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="8" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H5" s="8">
         <v>413.04199999999997</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I5" s="8">
         <v>350.47300000000001</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J5" s="8">
         <v>406.73500000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="8">
+        <v>5202.99</v>
+      </c>
+      <c r="C11" s="8">
+        <v>6883.59</v>
+      </c>
+      <c r="D11" s="8">
+        <v>5177.2700000000004</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="8">
+        <v>23350.19</v>
+      </c>
+      <c r="I11" s="8">
+        <v>32492.080000000002</v>
+      </c>
+      <c r="J11" s="8">
+        <v>27104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8">
+        <v>13.9757</v>
+      </c>
+      <c r="C12" s="8">
+        <v>13.2934</v>
+      </c>
+      <c r="D12" s="8">
+        <v>13.8437</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="8">
+        <v>368.58</v>
+      </c>
+      <c r="I12" s="8">
+        <v>488.69900000000001</v>
+      </c>
+      <c r="J12" s="8">
+        <v>572.25300000000004</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="G1:J1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="G9:J9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Resultados/Resultados.xlsx
+++ b/Resultados/Resultados.xlsx
@@ -414,6 +414,83 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>730440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>78840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>223920</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>115560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="" id="0" name="Graphics 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12577320" y="78840"/>
+          <a:ext cx="4014360" cy="2516400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14040</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>108360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>233280</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr descr="" id="1" name="Graphics 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12614400" y="2765160"/>
+          <a:ext cx="3986640" cy="4332600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -426,15 +503,17 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0745098039216"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3411764705882"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.7647058823529"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.043137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.18039215686274"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.0745098039216"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.9176470588235"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.2039215686275"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.6196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.4"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8196078431373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0941176470588"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.22352941176471"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.1450980392157"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.9843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.2666666666667"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.6705882352941"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1">
@@ -977,5 +1056,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resultados/Resultados.xlsx
+++ b/Resultados/Resultados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="16380" windowHeight="8190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="16380" windowHeight="8190" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="8 Nós " sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="22">
   <si>
     <t>8 Nós Fixos</t>
   </si>
@@ -97,7 +97,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -126,6 +126,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -371,26 +377,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -437,6 +425,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3639,523 +3646,528 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="3" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="10">
         <v>1742.98</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="10">
         <v>2157.2800000000002</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="10">
         <v>1737.4</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="17" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="10">
         <v>11268.17</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="10">
         <v>15762.48</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="12">
         <v>12253.9</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="10">
         <v>18.4147</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="10">
         <v>17.833100000000002</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="10">
         <v>18.270299999999999</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="17" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="10">
         <v>413.04199999999997</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="10">
         <v>350.47300000000001</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="12">
         <v>406.73500000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="20"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="20"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="3" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="10">
         <v>5202.99</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="10">
         <v>6883.59</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="10">
         <v>5177.2700000000004</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="17" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="10">
         <v>23350.19</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="10">
         <v>32492.080000000002</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="12">
         <v>27104</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="16">
         <v>13.9757</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="16">
         <v>13.2934</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="16">
         <v>13.8437</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="16">
         <v>368.58</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="16">
         <v>488.69900000000001</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="19">
         <v>572.25300000000004</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="3" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13" t="s">
+      <c r="E19" s="1"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="10">
         <v>1762.17</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="10">
         <v>2173.1799999999998</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="10">
         <v>1740.42</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="17" t="s">
+      <c r="E20" s="1"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="10">
         <v>11434.98</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="10">
         <v>16017.02</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="12">
         <v>12266.72</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="10">
         <v>18.2469</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="10">
         <v>17.8507</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="10">
         <v>18.22</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="17" t="s">
+      <c r="E21" s="1"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="10">
         <v>418.185</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="10">
         <v>398.09300000000002</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="12">
         <v>407.75900000000001</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="20"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="20"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="3" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13" t="s">
+      <c r="E26" s="1"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="10">
         <v>6074.55</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="10">
         <v>7751.62</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="10">
         <v>6030.07</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="17" t="s">
+      <c r="E27" s="1"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="10">
         <v>14455.47</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="10">
         <v>20811.599999999999</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="12">
         <v>19452.66</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="16">
         <v>18.601900000000001</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="16">
         <v>17.5931</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="16">
         <v>31.490500000000001</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24" t="s">
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="16">
         <v>642.81899999999996</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="16">
         <v>217.59399999999999</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28" s="19">
         <v>248.352</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A9:J9"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="G25:J25"/>
@@ -4165,11 +4177,6 @@
     <mergeCell ref="A17:J17"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="G18:J18"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A9:J9"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -4182,7 +4189,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection sqref="A1:P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4199,779 +4206,780 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="M1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="F3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="M3" s="1" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="M3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="13" t="s">
+      <c r="M4" s="6"/>
+      <c r="N4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="10">
         <v>11613.44</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="10">
         <v>16039.96</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="10">
         <v>11996.04</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="10">
         <v>11616.7</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="10">
         <v>16039.96</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="10">
         <v>12215.57</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="10">
         <v>11314.65</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="10">
         <v>16082.43</v>
       </c>
-      <c r="P5" s="16"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="10">
         <v>452.48</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="10">
         <v>387.94099999999997</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="10">
         <v>410.89299999999997</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="10">
         <v>1031.8800000000001</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="10">
         <v>710.08100000000002</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="10">
         <v>655.327</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="10">
         <v>444.50200000000001</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="10">
         <v>399.30500000000001</v>
       </c>
-      <c r="P6" s="16"/>
+      <c r="P6" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="F8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="M8" s="1" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="M8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="13" t="s">
+      <c r="M9" s="6"/>
+      <c r="N9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="10">
         <v>9753.91</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="10">
         <v>16012.5</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="10">
         <v>12083.19</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="10">
         <v>14273.88</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="10">
         <v>21236.55</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="10">
         <v>19179.509999999998</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="10">
         <v>7056.58</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="10">
         <v>16012.5</v>
       </c>
-      <c r="P10" s="16"/>
+      <c r="P10" s="10"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="10">
         <v>556.005</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="10">
         <v>405.00200000000001</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="10">
         <v>421.12099999999998</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="10">
         <v>837.73500000000001</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="10">
         <v>398.17</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="10">
         <v>319.952</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="10">
         <v>463.392</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="10">
         <v>405.00200000000001</v>
       </c>
-      <c r="P11" s="16"/>
+      <c r="P11" s="10"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="F13" s="1" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="F13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="M13" s="1" t="s">
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="M13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13" t="s">
+      <c r="F14" s="6"/>
+      <c r="G14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="13" t="s">
+      <c r="M14" s="6"/>
+      <c r="N14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="13" t="s">
+      <c r="O14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="13" t="s">
+      <c r="P14" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="10">
         <v>8775.34</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="10">
         <v>16038.08</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="10">
         <v>11875.16</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="10">
         <v>13530.45</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="10">
         <v>27629.87</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="10">
         <v>18817.560000000001</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="M15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="10">
         <v>6972.72</v>
       </c>
-      <c r="O15" s="16">
+      <c r="O15" s="10">
         <v>16033.92</v>
       </c>
-      <c r="P15" s="16"/>
+      <c r="P15" s="10"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="10">
         <v>555.38400000000001</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="10">
         <v>388.78</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="10">
         <v>447.33600000000001</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="10">
         <v>792.85599999999999</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="10">
         <v>474.97500000000002</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="10">
         <v>134.482</v>
       </c>
-      <c r="M16" s="17" t="s">
+      <c r="M16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="16">
+      <c r="N16" s="10">
         <v>561.38599999999997</v>
       </c>
-      <c r="O16" s="16">
+      <c r="O16" s="10">
         <v>390.60399999999998</v>
       </c>
-      <c r="P16" s="16"/>
+      <c r="P16" s="10"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="F18" s="1" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="F18" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="M18" s="1" t="s">
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="M18" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M19" s="12"/>
-      <c r="N19" s="13" t="s">
+      <c r="M19" s="6"/>
+      <c r="N19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="O19" s="13" t="s">
+      <c r="O19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="13" t="s">
+      <c r="P19" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="10">
         <v>5565.45</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="10">
         <v>16068.46</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="10">
         <v>1677.07</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="10">
         <v>19535.759999999998</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="10">
         <v>28695.17</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="10">
         <v>7871.29</v>
       </c>
-      <c r="M20" s="17" t="s">
+      <c r="M20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N20" s="16">
+      <c r="N20" s="10">
         <v>7863.66</v>
       </c>
-      <c r="O20" s="16">
+      <c r="O20" s="10">
         <v>16089.64</v>
       </c>
-      <c r="P20" s="16"/>
+      <c r="P20" s="10"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="10">
         <v>910.45600000000002</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="10">
         <v>395.03199999999998</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="10">
         <v>356.64400000000001</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="10">
         <v>490.20699999999999</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="10">
         <v>530.803</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="10">
         <v>261.702</v>
       </c>
-      <c r="M21" s="17" t="s">
+      <c r="M21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="16">
+      <c r="N21" s="10">
         <v>705.53700000000003</v>
       </c>
-      <c r="O21" s="16">
+      <c r="O21" s="10">
         <v>399.27499999999998</v>
       </c>
-      <c r="P21" s="16"/>
+      <c r="P21" s="10"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="F23" s="1" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="F23" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="M23" s="1" t="s">
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="M23" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13" t="s">
+      <c r="F24" s="6"/>
+      <c r="G24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M24" s="12"/>
-      <c r="N24" s="13" t="s">
+      <c r="M24" s="6"/>
+      <c r="N24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="13" t="s">
+      <c r="O24" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P24" s="13" t="s">
+      <c r="P24" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="10">
         <v>7887.97</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="10">
         <v>28771.48</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="10">
         <v>18993.509999999998</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="10">
         <v>10238.02</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="10">
         <v>38583.22</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="10">
         <v>29110.05</v>
       </c>
-      <c r="M25" s="17" t="s">
+      <c r="M25" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N25" s="16">
+      <c r="N25" s="10">
         <v>4985.1400000000003</v>
       </c>
-      <c r="O25" s="16">
+      <c r="O25" s="10">
         <v>28787.84</v>
       </c>
-      <c r="P25" s="16"/>
+      <c r="P25" s="10"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="10">
         <v>443.26400000000001</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="10">
         <v>257.036</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="10">
         <v>265.44499999999999</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="10">
         <v>866.03599999999994</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="10">
         <v>417.11700000000002</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="10">
         <v>305.048</v>
       </c>
-      <c r="M26" s="17" t="s">
+      <c r="M26" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="N26" s="16">
+      <c r="N26" s="10">
         <v>576.96100000000001</v>
       </c>
-      <c r="O26" s="16">
+      <c r="O26" s="10">
         <v>254.727</v>
       </c>
-      <c r="P26" s="16"/>
+      <c r="P26" s="10"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="F28" s="1" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="F28" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="M28" s="1" t="s">
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="M28" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="13" t="s">
+      <c r="F29" s="6"/>
+      <c r="G29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M29" s="12"/>
-      <c r="N29" s="13" t="s">
+      <c r="M29" s="6"/>
+      <c r="N29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="13" t="s">
+      <c r="O29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="13" t="s">
+      <c r="P29" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="10">
         <v>2381.2399999999998</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="10">
         <v>15883.77</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="10">
         <v>5715.11</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="10">
         <v>3695.02</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="10">
         <v>23320.87</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="10">
         <v>9689.4500000000007</v>
       </c>
-      <c r="M30" s="17" t="s">
+      <c r="M30" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N30" s="16">
+      <c r="N30" s="10">
         <v>2953.72</v>
       </c>
-      <c r="O30" s="16">
+      <c r="O30" s="10">
         <v>16043.79</v>
       </c>
-      <c r="P30" s="16"/>
+      <c r="P30" s="10"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="10">
         <v>698.60599999999999</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="10">
         <v>366.67500000000001</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="10">
         <v>413.85700000000003</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="10">
         <v>1197.6500000000001</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="10">
         <v>615.76099999999997</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="10">
         <v>710.572</v>
       </c>
-      <c r="M31" s="17" t="s">
+      <c r="M31" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="N31" s="16">
+      <c r="N31" s="10">
         <v>1015.73</v>
       </c>
-      <c r="O31" s="16">
+      <c r="O31" s="10">
         <v>399.20400000000001</v>
       </c>
-      <c r="P31" s="16"/>
+      <c r="P31" s="10"/>
     </row>
     <row r="33" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N33" s="26"/>
+      <c r="N33" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="F8:I8"/>
     <mergeCell ref="M23:P23"/>
     <mergeCell ref="M28:P28"/>
     <mergeCell ref="A28:D28"/>
@@ -4982,12 +4990,11 @@
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="F23:I23"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="M18:P18"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -4998,11 +5005,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="27"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -5011,14 +5021,711 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="F1" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="M1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="F3" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="M3" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1730.9</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2161.9499999999998</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="F5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="10">
+        <v>3914.24</v>
+      </c>
+      <c r="H5" s="10">
+        <v>4870.8900000000003</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="M5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="10">
+        <v>18.113499999999998</v>
+      </c>
+      <c r="C6" s="10">
+        <v>17.947199999999999</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="F6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="10">
+        <v>24.148800000000001</v>
+      </c>
+      <c r="H6" s="10">
+        <v>22.892800000000001</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="M6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="F8" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="M8" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1731.04</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2128.31</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="F10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="10">
+        <v>4640.7299999999996</v>
+      </c>
+      <c r="H10" s="10">
+        <v>4241.79</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="M10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10">
+        <v>18.886900000000001</v>
+      </c>
+      <c r="C11" s="10">
+        <v>17.844999999999999</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="F11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="10">
+        <v>39.0944</v>
+      </c>
+      <c r="H11" s="10">
+        <v>16.6617</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="M11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="F13" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="M13" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="10">
+        <v>1724.26</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2164.37</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="F15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="10">
+        <v>20474.2</v>
+      </c>
+      <c r="H15" s="10">
+        <v>28436.03</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="M15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="10">
+        <v>20.556999999999999</v>
+      </c>
+      <c r="C16" s="10">
+        <v>17.9343</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="F16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="10">
+        <v>847.47699999999998</v>
+      </c>
+      <c r="H16" s="10">
+        <v>711.00400000000002</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="M16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="F18" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="M18" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="10">
+        <v>2217.86</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2211.8200000000002</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="F20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="10">
+        <v>2923.67</v>
+      </c>
+      <c r="H20">
+        <v>3877.61</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="M20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="10">
+        <v>30.7121</v>
+      </c>
+      <c r="C21" s="10">
+        <v>17.874600000000001</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="F21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="10">
+        <v>17.416699999999999</v>
+      </c>
+      <c r="H21" s="10">
+        <v>13.749599999999999</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="M21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="F23" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="M23" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24" s="6"/>
+      <c r="N24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="10">
+        <v>1717.68</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1765.73</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="F25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="10">
+        <v>2937.32</v>
+      </c>
+      <c r="H25" s="10">
+        <v>3608.11</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="M25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="10">
+        <v>38.6845</v>
+      </c>
+      <c r="C26" s="10">
+        <v>11.9458</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="F26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="10">
+        <v>30.122699999999998</v>
+      </c>
+      <c r="H26" s="10">
+        <v>11.2704</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="M26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="F28" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="M28" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29" s="6"/>
+      <c r="N29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="10">
+        <v>2076.04</v>
+      </c>
+      <c r="C30" s="10">
+        <v>2167.41</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="F30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="10">
+        <v>33366.75</v>
+      </c>
+      <c r="H30" s="10">
+        <v>4167.76</v>
+      </c>
+      <c r="I30" s="10"/>
+      <c r="M30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10">
+        <v>17.918600000000001</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="F31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="10">
+        <v>2007.28</v>
+      </c>
+      <c r="H31" s="10">
+        <v>17.224900000000002</v>
+      </c>
+      <c r="I31" s="10"/>
+      <c r="M31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="M3:P3"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Resultados/Resultados.xlsx
+++ b/Resultados/Resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de8f8ed30de93035/TG3/TG/Resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="411" documentId="5E305BD924317ECCFDE2ADACF241BA185A36A761" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{F23C4A95-1C67-408B-A1C7-630C4E38A652}"/>
+  <xr:revisionPtr revIDLastSave="485" documentId="5E305BD924317ECCFDE2ADACF241BA185A36A761" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{91DBA7E0-2312-4BBF-9C2F-1D502DAB3298}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="16380" windowHeight="8190" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="16380" windowHeight="8190" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8 Nós " sheetId="1" r:id="rId1"/>
@@ -24,30 +24,30 @@
   <definedNames>
     <definedName name="DadosExternos_1" localSheetId="4" hidden="1">Planilha15!$A$1:$A$24</definedName>
   </definedNames>
-  <calcPr calcId="171027" iterateDelta="1E-4" calcCompleted="0"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{ECBAA240-5AAC-432E-8F62-6B332F01647A}" keepAlive="1" name="Consulta - AODV3TrDelay" description="Conexão com a consulta 'AODV3TrDelay' na pasta de trabalho." type="5" refreshedVersion="0" background="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Consulta - AODV3TrDelay" description="Conexão com a consulta 'AODV3TrDelay' na pasta de trabalho." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=AODV3TrDelay;Extended Properties=&quot;&quot;" command="SELECT * FROM [AODV3TrDelay]"/>
   </connection>
-  <connection id="2" xr16:uid="{1AA25DA1-3ED6-491C-8FE2-C19748087A79}" keepAlive="1" name="Consulta - AODV3TrThr" description="Conexão com a consulta 'AODV3TrThr' na pasta de trabalho." type="5" refreshedVersion="0" background="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Consulta - AODV3TrThr" description="Conexão com a consulta 'AODV3TrThr' na pasta de trabalho." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=AODV3TrThr;Extended Properties=&quot;&quot;" command="SELECT * FROM [AODV3TrThr]"/>
   </connection>
-  <connection id="3" xr16:uid="{14203381-B1F9-437C-947F-F48A062577AF}" keepAlive="1" name="Consulta - DSR3TrDelay" description="Conexão com a consulta 'DSR3TrDelay' na pasta de trabalho." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" keepAlive="1" name="Consulta - DSR3TrDelay" description="Conexão com a consulta 'DSR3TrDelay' na pasta de trabalho." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=DSR3TrDelay;Extended Properties=&quot;&quot;" command="SELECT * FROM [DSR3TrDelay]"/>
   </connection>
-  <connection id="4" xr16:uid="{CE34715E-59DD-43D7-9D4C-B5D9839739D2}" keepAlive="1" name="Consulta - DSR3TrThr" description="Conexão com a consulta 'DSR3TrThr' na pasta de trabalho." type="5" refreshedVersion="0" background="1">
+  <connection id="4" xr16:uid="{00000000-0015-0000-FFFF-FFFF03000000}" keepAlive="1" name="Consulta - DSR3TrThr" description="Conexão com a consulta 'DSR3TrThr' na pasta de trabalho." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=DSR3TrThr;Extended Properties=&quot;&quot;" command="SELECT * FROM [DSR3TrThr]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="33">
   <si>
     <t>8 Nós Fixos</t>
   </si>
@@ -144,6 +144,9 @@
   <si>
     <t>Graficos 3 Transmissões</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
@@ -152,7 +155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -214,6 +217,13 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -318,7 +328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -527,11 +537,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -615,10 +640,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,19 +671,20 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1845,73 +1874,73 @@
             <c:numRef>
               <c:f>'TCP(Novo)'!$C$7:$C$28</c:f>
               <c:numCache>
-                <c:formatCode>0,000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>452.48</c:v>
+                  <c:v>288.19600000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>481.62099999999998</c:v>
+                  <c:v>307.85300000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>483.74599999999998</c:v>
+                  <c:v>326.303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>556.005</c:v>
+                  <c:v>382.81200000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>507.286</c:v>
+                  <c:v>339.41500000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>551.89499999999998</c:v>
+                  <c:v>361.40300000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>555.38400000000001</c:v>
+                  <c:v>368.08300000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>543.65800000000002</c:v>
+                  <c:v>373.666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>592.41399999999999</c:v>
+                  <c:v>436.86200000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>910.45600000000002</c:v>
+                  <c:v>613.89</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>726.16</c:v>
+                  <c:v>517.01</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>780.91</c:v>
+                  <c:v>517.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>821.32399999999996</c:v>
+                  <c:v>556.678</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>935.00099999999998</c:v>
+                  <c:v>639.35900000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1128.1099999999999</c:v>
+                  <c:v>783.22400000000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1001.5</c:v>
+                  <c:v>740.86599999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>993.05399999999997</c:v>
+                  <c:v>825.01300000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>840.22199999999998</c:v>
+                  <c:v>643.26099999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1174.26</c:v>
+                  <c:v>951.89599999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>941.95699999999999</c:v>
+                  <c:v>922.65200000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1004.56</c:v>
+                  <c:v>1044.58</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>874.13900000000001</c:v>
+                  <c:v>965.26300000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5397,10 +5426,10 @@
                   <c:v>1750.19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2217.86</c:v>
+                  <c:v>1813.57</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2570.38</c:v>
+                  <c:v>1820.52</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1748.19</c:v>
@@ -5424,7 +5453,7 @@
                   <c:v>1726.64</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2000.93</c:v>
+                  <c:v>1777.67</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1752.4</c:v>
@@ -5805,6 +5834,7 @@
         <c:axId val="208140495"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="1500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5931,6 +5961,7 @@
         <c:crossAx val="166413871"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="250"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -6219,7 +6250,7 @@
             <c:numRef>
               <c:f>'UDP(Novo)'!$C$6:$C$27</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>18.113499999999998</c:v>
@@ -6249,10 +6280,10 @@
                   <c:v>21.589400000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.7121</c:v>
+                  <c:v>29.792899999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>64.997200000000007</c:v>
+                  <c:v>45.331000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>24.061299999999999</c:v>
@@ -6601,7 +6632,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8971,70 +9002,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>11613.44</c:v>
+                  <c:v>25108.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11244.37</c:v>
+                  <c:v>24311.69</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10658.89</c:v>
+                  <c:v>22997.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9753.91</c:v>
+                  <c:v>21265.439999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9825.35</c:v>
+                  <c:v>21231.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9241.49</c:v>
+                  <c:v>19854.009999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8775.34</c:v>
+                  <c:v>18860.47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8564.73</c:v>
+                  <c:v>18525.88</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7496.48</c:v>
+                  <c:v>16699.55</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5565.45</c:v>
+                  <c:v>11943.99</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4955.12</c:v>
+                  <c:v>10994.49</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7041.2</c:v>
+                  <c:v>15111.13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6460.14</c:v>
+                  <c:v>13682.11</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5236.57</c:v>
+                  <c:v>11408.01</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3569.77</c:v>
+                  <c:v>7504.57</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3835.41</c:v>
+                  <c:v>8624.51</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3186.92</c:v>
+                  <c:v>7145.9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3123.7</c:v>
+                  <c:v>6411.66</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2265.94</c:v>
+                  <c:v>5202.13</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1686.83</c:v>
+                  <c:v>3892.02</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1531.93</c:v>
+                  <c:v>3387.82</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1124.52</c:v>
+                  <c:v>2859.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9178,70 +9209,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>55393.19</c:v>
+                  <c:v>34672.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28762.45</c:v>
+                  <c:v>34627.56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16022.97</c:v>
+                  <c:v>34555.61</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16012.5</c:v>
+                  <c:v>34556.160000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16027.85</c:v>
+                  <c:v>34588.03</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16048.3</c:v>
+                  <c:v>34630.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16038.08</c:v>
+                  <c:v>34581.919999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16038.63</c:v>
+                  <c:v>34597.74</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15784.74</c:v>
+                  <c:v>33945.730000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16068.46</c:v>
+                  <c:v>34657.980000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16041.16</c:v>
+                  <c:v>34600.69</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16043.28</c:v>
+                  <c:v>34592.01</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16054.97</c:v>
+                  <c:v>34622.370000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10834.67</c:v>
+                  <c:v>34569.620000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16039.7</c:v>
+                  <c:v>34626.76</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16022.19</c:v>
+                  <c:v>34639.49</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16046.35</c:v>
+                  <c:v>34627.1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16051.96</c:v>
+                  <c:v>34584.29</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16035.84</c:v>
+                  <c:v>34583.480000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15876.69</c:v>
+                  <c:v>34198.82</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3137.8</c:v>
+                  <c:v>34014.58</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>16048.9</c:v>
+                  <c:v>34591.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10610,70 +10641,70 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>452.48</c:v>
+                  <c:v>288.19600000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>481.62099999999998</c:v>
+                  <c:v>307.85300000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>483.74599999999998</c:v>
+                  <c:v>326.303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>556.005</c:v>
+                  <c:v>382.81200000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>507.286</c:v>
+                  <c:v>339.41500000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>551.89499999999998</c:v>
+                  <c:v>361.40300000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>555.38400000000001</c:v>
+                  <c:v>368.08300000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>543.65800000000002</c:v>
+                  <c:v>373.666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>592.41399999999999</c:v>
+                  <c:v>436.86200000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>910.45600000000002</c:v>
+                  <c:v>613.89</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>726.16</c:v>
+                  <c:v>517.01</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>780.91</c:v>
+                  <c:v>517.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>821.32399999999996</c:v>
+                  <c:v>556.678</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>935.00099999999998</c:v>
+                  <c:v>639.35900000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1128.1099999999999</c:v>
+                  <c:v>783.22400000000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1001.5</c:v>
+                  <c:v>740.86599999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>993.05399999999997</c:v>
+                  <c:v>825.01300000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>840.22199999999998</c:v>
+                  <c:v>643.26099999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1174.26</c:v>
+                  <c:v>951.89599999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>941.95699999999999</c:v>
+                  <c:v>922.65200000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1004.56</c:v>
+                  <c:v>1044.58</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>874.13900000000001</c:v>
+                  <c:v>965.26300000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10820,67 +10851,67 @@
                   <c:v>262.32400000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>253.43299999999999</c:v>
+                  <c:v>271.59800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>396.65300000000002</c:v>
+                  <c:v>265.41699999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>405.00200000000001</c:v>
+                  <c:v>271.29700000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>403.12700000000001</c:v>
+                  <c:v>267.774</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400.69</c:v>
+                  <c:v>275.07799999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>388.78</c:v>
+                  <c:v>267.358</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>400.95600000000002</c:v>
+                  <c:v>266.012</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>339.42399999999998</c:v>
+                  <c:v>240.63900000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>395.03199999999998</c:v>
+                  <c:v>260.18900000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>387.48399999999998</c:v>
+                  <c:v>268.07799999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>386.38</c:v>
+                  <c:v>264.52300000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>389.50700000000001</c:v>
+                  <c:v>262.517</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>503.80500000000001</c:v>
+                  <c:v>264.26900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>391.95800000000003</c:v>
+                  <c:v>259.60700000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>402.10599999999999</c:v>
+                  <c:v>263.03699999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>392.76799999999997</c:v>
+                  <c:v>265.245</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>379.95699999999999</c:v>
+                  <c:v>269.51</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>379.024</c:v>
+                  <c:v>267.58499999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>381.72199999999998</c:v>
+                  <c:v>253.78299999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>423.48099999999999</c:v>
+                  <c:v>209.22499999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>380.72</c:v>
+                  <c:v>269.44200000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12458,70 +12489,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>55393.19</c:v>
+                  <c:v>34672.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28762.45</c:v>
+                  <c:v>34627.56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16022.97</c:v>
+                  <c:v>34555.61</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16012.5</c:v>
+                  <c:v>34556.160000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16027.85</c:v>
+                  <c:v>34588.03</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16048.3</c:v>
+                  <c:v>34630.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16038.08</c:v>
+                  <c:v>34581.919999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16038.63</c:v>
+                  <c:v>34597.74</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15784.74</c:v>
+                  <c:v>33945.730000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16068.46</c:v>
+                  <c:v>34657.980000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16041.16</c:v>
+                  <c:v>34600.69</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16043.28</c:v>
+                  <c:v>34592.01</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16054.97</c:v>
+                  <c:v>34622.370000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10834.67</c:v>
+                  <c:v>34569.620000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16039.7</c:v>
+                  <c:v>34626.76</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16022.19</c:v>
+                  <c:v>34639.49</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16046.35</c:v>
+                  <c:v>34627.1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16051.96</c:v>
+                  <c:v>34584.29</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16035.84</c:v>
+                  <c:v>34583.480000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15876.69</c:v>
+                  <c:v>34198.82</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3137.8</c:v>
+                  <c:v>34014.58</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>16048.9</c:v>
+                  <c:v>34591.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13192,70 +13223,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>11613.44</c:v>
+                  <c:v>25108.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11244.37</c:v>
+                  <c:v>24311.69</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10658.89</c:v>
+                  <c:v>22997.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9753.91</c:v>
+                  <c:v>21265.439999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9825.35</c:v>
+                  <c:v>21231.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9241.49</c:v>
+                  <c:v>19854.009999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8775.34</c:v>
+                  <c:v>18860.47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8564.73</c:v>
+                  <c:v>18525.88</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7496.48</c:v>
+                  <c:v>16699.55</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5565.45</c:v>
+                  <c:v>11943.99</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4955.12</c:v>
+                  <c:v>10994.49</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7041.2</c:v>
+                  <c:v>15111.13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6460.14</c:v>
+                  <c:v>13682.11</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5236.57</c:v>
+                  <c:v>11408.01</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3569.77</c:v>
+                  <c:v>7504.57</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3835.41</c:v>
+                  <c:v>8624.51</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3186.92</c:v>
+                  <c:v>7145.9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3123.7</c:v>
+                  <c:v>6411.66</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2265.94</c:v>
+                  <c:v>5202.13</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1686.83</c:v>
+                  <c:v>3892.02</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1531.93</c:v>
+                  <c:v>3387.82</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1124.52</c:v>
+                  <c:v>2859.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13923,73 +13954,73 @@
             <c:numRef>
               <c:f>'TCP(Novo)'!$G$7:$G$28</c:f>
               <c:numCache>
-                <c:formatCode>0,000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>262.32400000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>253.43299999999999</c:v>
+                  <c:v>271.59800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>396.65300000000002</c:v>
+                  <c:v>265.41699999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>405.00200000000001</c:v>
+                  <c:v>271.29700000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>403.12700000000001</c:v>
+                  <c:v>267.774</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400.69</c:v>
+                  <c:v>275.07799999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>388.78</c:v>
+                  <c:v>267.358</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>400.95600000000002</c:v>
+                  <c:v>266.012</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>339.42399999999998</c:v>
+                  <c:v>240.63900000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>395.03199999999998</c:v>
+                  <c:v>260.18900000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>387.48399999999998</c:v>
+                  <c:v>268.07799999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>386.38</c:v>
+                  <c:v>264.52300000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>389.50700000000001</c:v>
+                  <c:v>262.517</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>503.80500000000001</c:v>
+                  <c:v>264.26900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>391.95800000000003</c:v>
+                  <c:v>259.60700000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>402.10599999999999</c:v>
+                  <c:v>263.03699999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>392.76799999999997</c:v>
+                  <c:v>265.245</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>379.95699999999999</c:v>
+                  <c:v>269.51</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>379.024</c:v>
+                  <c:v>267.58499999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>381.72199999999998</c:v>
+                  <c:v>253.78299999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>423.48099999999999</c:v>
+                  <c:v>209.22499999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>380.72</c:v>
+                  <c:v>269.44200000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25074,7 +25105,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DadosExternos_1" connectionId="3" xr16:uid="{4C36C6B4-ADFA-4898-BB87-20F10FAD30AD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DadosExternos_1" connectionId="3" xr16:uid="{00000000-0016-0000-0400-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="1">
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
@@ -25415,48 +25446,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -25563,34 +25594,34 @@
       <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -25673,48 +25704,48 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="48" t="s">
+      <c r="G18" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -25821,34 +25852,34 @@
       <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="48" t="s">
+      <c r="G25" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -25975,44 +26006,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="F1" s="49" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="F1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="M1" s="49" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="M1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="F3" s="50" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="F3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="M3" s="50" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="M3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
@@ -26119,24 +26150,24 @@
       <c r="P6" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="F8" s="50" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="F8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="M8" s="50" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="M8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
@@ -26243,24 +26274,24 @@
       <c r="P11" s="10"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="F13" s="50" t="s">
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="F13" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="M13" s="50" t="s">
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="M13" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
@@ -26367,24 +26398,24 @@
       <c r="P16" s="10"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="F18" s="50" t="s">
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="F18" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="M18" s="50" t="s">
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="M18" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
@@ -26491,24 +26522,24 @@
       <c r="P21" s="10"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="F23" s="50" t="s">
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="F23" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="M23" s="50" t="s">
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="M23" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
@@ -26615,24 +26646,24 @@
       <c r="P26" s="10"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="F28" s="50" t="s">
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="F28" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="M28" s="50" t="s">
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="M28" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
@@ -26809,44 +26840,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="F1" s="49" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="F1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="M1" s="49" t="s">
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="M1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="F3" s="50" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="F3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="M3" s="50" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="M3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
@@ -26937,24 +26968,24 @@
       <c r="P6" s="10"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="F8" s="50" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="F8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="M8" s="50" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="M8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
@@ -27045,24 +27076,24 @@
       <c r="P11" s="10"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="F13" s="50" t="s">
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="F13" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="M13" s="50" t="s">
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="M13" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
@@ -27153,24 +27184,24 @@
       <c r="P16" s="10"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="F18" s="50" t="s">
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="F18" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="M18" s="50" t="s">
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="M18" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
@@ -27261,24 +27292,24 @@
       <c r="P21" s="10"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="F23" s="50" t="s">
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="F23" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="M23" s="50" t="s">
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="M23" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
@@ -27369,24 +27400,24 @@
       <c r="P26" s="10"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="F28" s="50" t="s">
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="F28" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="M28" s="50" t="s">
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="M28" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
@@ -27641,10 +27672,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF3E6FB-426B-4576-8885-6E4D826C2C38}">
-  <dimension ref="A3:P167"/>
+  <dimension ref="A3:P233"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R180" sqref="R180"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E243" sqref="E243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27666,62 +27697,62 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="J3" s="52" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="J3" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="E5" s="51" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="E5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="J5" s="51" t="s">
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="J5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="N5" s="51" t="s">
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="N5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
@@ -27766,16 +27797,16 @@
         <v>9</v>
       </c>
       <c r="B7" s="24">
-        <v>11613.44</v>
+        <v>25108.44</v>
       </c>
       <c r="C7" s="25">
-        <v>452.48</v>
+        <v>288.19600000000003</v>
       </c>
       <c r="E7" s="23">
         <v>9</v>
       </c>
       <c r="F7" s="30">
-        <v>55393.19</v>
+        <v>34672.6</v>
       </c>
       <c r="G7" s="31">
         <v>262.32400000000001</v>
@@ -27805,20 +27836,20 @@
         <v>10</v>
       </c>
       <c r="B8" s="26">
-        <v>11244.37</v>
+        <v>24311.69</v>
       </c>
       <c r="C8" s="27">
-        <v>481.62099999999998</v>
+        <v>307.85300000000001</v>
       </c>
       <c r="E8" s="23">
         <f>E7+1</f>
         <v>10</v>
       </c>
       <c r="F8" s="32">
-        <v>28762.45</v>
+        <v>34627.56</v>
       </c>
       <c r="G8" s="33">
-        <v>253.43299999999999</v>
+        <v>271.59800000000001</v>
       </c>
       <c r="J8" s="23">
         <f>J7+1</f>
@@ -27847,20 +27878,20 @@
         <v>11</v>
       </c>
       <c r="B9" s="24">
-        <v>10658.89</v>
+        <v>22997.01</v>
       </c>
       <c r="C9" s="25">
-        <v>483.74599999999998</v>
+        <v>326.303</v>
       </c>
       <c r="E9" s="23">
         <f t="shared" ref="E9:E28" si="1">E8+1</f>
         <v>11</v>
       </c>
       <c r="F9" s="30">
-        <v>16022.97</v>
+        <v>34555.61</v>
       </c>
       <c r="G9" s="31">
-        <v>396.65300000000002</v>
+        <v>265.41699999999997</v>
       </c>
       <c r="J9" s="23">
         <f t="shared" ref="J9:J28" si="2">J8+1</f>
@@ -27889,20 +27920,20 @@
         <v>12</v>
       </c>
       <c r="B10" s="26">
-        <v>9753.91</v>
+        <v>21265.439999999999</v>
       </c>
       <c r="C10" s="27">
-        <v>556.005</v>
+        <v>382.81200000000001</v>
       </c>
       <c r="E10" s="23">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F10" s="32">
-        <v>16012.5</v>
+        <v>34556.160000000003</v>
       </c>
       <c r="G10" s="33">
-        <v>405.00200000000001</v>
+        <v>271.29700000000003</v>
       </c>
       <c r="J10" s="23">
         <f t="shared" si="2"/>
@@ -27931,20 +27962,20 @@
         <v>13</v>
       </c>
       <c r="B11" s="24">
-        <v>9825.35</v>
+        <v>21231.17</v>
       </c>
       <c r="C11" s="25">
-        <v>507.286</v>
+        <v>339.41500000000002</v>
       </c>
       <c r="E11" s="23">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F11" s="30">
-        <v>16027.85</v>
+        <v>34588.03</v>
       </c>
       <c r="G11" s="31">
-        <v>403.12700000000001</v>
+        <v>267.774</v>
       </c>
       <c r="J11" s="23">
         <f t="shared" si="2"/>
@@ -27973,20 +28004,20 @@
         <v>14</v>
       </c>
       <c r="B12" s="26">
-        <v>9241.49</v>
+        <v>19854.009999999998</v>
       </c>
       <c r="C12" s="27">
-        <v>551.89499999999998</v>
+        <v>361.40300000000002</v>
       </c>
       <c r="E12" s="23">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="F12" s="32">
-        <v>16048.3</v>
+        <v>34630.35</v>
       </c>
       <c r="G12" s="33">
-        <v>400.69</v>
+        <v>275.07799999999997</v>
       </c>
       <c r="J12" s="23">
         <f t="shared" si="2"/>
@@ -28015,20 +28046,20 @@
         <v>15</v>
       </c>
       <c r="B13" s="24">
-        <v>8775.34</v>
+        <v>18860.47</v>
       </c>
       <c r="C13" s="25">
-        <v>555.38400000000001</v>
+        <v>368.08300000000003</v>
       </c>
       <c r="E13" s="23">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="F13" s="30">
-        <v>16038.08</v>
+        <v>34581.919999999998</v>
       </c>
       <c r="G13" s="31">
-        <v>388.78</v>
+        <v>267.358</v>
       </c>
       <c r="J13" s="23">
         <f t="shared" si="2"/>
@@ -28057,20 +28088,20 @@
         <v>16</v>
       </c>
       <c r="B14" s="26">
-        <v>8564.73</v>
+        <v>18525.88</v>
       </c>
       <c r="C14" s="27">
-        <v>543.65800000000002</v>
+        <v>373.666</v>
       </c>
       <c r="E14" s="23">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="F14" s="32">
-        <v>16038.63</v>
+        <v>34597.74</v>
       </c>
       <c r="G14" s="33">
-        <v>400.95600000000002</v>
+        <v>266.012</v>
       </c>
       <c r="J14" s="23">
         <f t="shared" si="2"/>
@@ -28099,20 +28130,20 @@
         <v>17</v>
       </c>
       <c r="B15" s="24">
-        <v>7496.48</v>
+        <v>16699.55</v>
       </c>
       <c r="C15" s="25">
-        <v>592.41399999999999</v>
+        <v>436.86200000000002</v>
       </c>
       <c r="E15" s="23">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="F15" s="30">
-        <v>15784.74</v>
+        <v>33945.730000000003</v>
       </c>
       <c r="G15" s="31">
-        <v>339.42399999999998</v>
+        <v>240.63900000000001</v>
       </c>
       <c r="J15" s="23">
         <f t="shared" si="2"/>
@@ -28141,20 +28172,20 @@
         <v>18</v>
       </c>
       <c r="B16" s="26">
-        <v>5565.45</v>
+        <v>11943.99</v>
       </c>
       <c r="C16" s="27">
-        <v>910.45600000000002</v>
+        <v>613.89</v>
       </c>
       <c r="E16" s="23">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="F16" s="32">
-        <v>16068.46</v>
+        <v>34657.980000000003</v>
       </c>
       <c r="G16" s="33">
-        <v>395.03199999999998</v>
+        <v>260.18900000000002</v>
       </c>
       <c r="J16" s="23">
         <f t="shared" si="2"/>
@@ -28183,20 +28214,20 @@
         <v>19</v>
       </c>
       <c r="B17" s="24">
-        <v>4955.12</v>
+        <v>10994.49</v>
       </c>
       <c r="C17" s="25">
-        <v>726.16</v>
+        <v>517.01</v>
       </c>
       <c r="E17" s="23">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="F17" s="30">
-        <v>16041.16</v>
+        <v>34600.69</v>
       </c>
       <c r="G17" s="31">
-        <v>387.48399999999998</v>
+        <v>268.07799999999997</v>
       </c>
       <c r="J17" s="23">
         <f t="shared" si="2"/>
@@ -28225,20 +28256,20 @@
         <v>20</v>
       </c>
       <c r="B18" s="26">
-        <v>7041.2</v>
+        <v>15111.13</v>
       </c>
       <c r="C18" s="27">
-        <v>780.91</v>
+        <v>517.75</v>
       </c>
       <c r="E18" s="23">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F18" s="32">
-        <v>16043.28</v>
+        <v>34592.01</v>
       </c>
       <c r="G18" s="33">
-        <v>386.38</v>
+        <v>264.52300000000002</v>
       </c>
       <c r="J18" s="23">
         <f t="shared" si="2"/>
@@ -28267,20 +28298,20 @@
         <v>21</v>
       </c>
       <c r="B19" s="24">
-        <v>6460.14</v>
+        <v>13682.11</v>
       </c>
       <c r="C19" s="25">
-        <v>821.32399999999996</v>
+        <v>556.678</v>
       </c>
       <c r="E19" s="23">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="F19" s="30">
-        <v>16054.97</v>
+        <v>34622.370000000003</v>
       </c>
       <c r="G19" s="31">
-        <v>389.50700000000001</v>
+        <v>262.517</v>
       </c>
       <c r="J19" s="23">
         <f t="shared" si="2"/>
@@ -28309,20 +28340,20 @@
         <v>22</v>
       </c>
       <c r="B20" s="26">
-        <v>5236.57</v>
+        <v>11408.01</v>
       </c>
       <c r="C20" s="27">
-        <v>935.00099999999998</v>
+        <v>639.35900000000004</v>
       </c>
       <c r="E20" s="23">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="F20" s="32">
-        <v>10834.67</v>
+        <v>34569.620000000003</v>
       </c>
       <c r="G20" s="33">
-        <v>503.80500000000001</v>
+        <v>264.26900000000001</v>
       </c>
       <c r="J20" s="23">
         <f t="shared" si="2"/>
@@ -28351,20 +28382,20 @@
         <v>23</v>
       </c>
       <c r="B21" s="24">
-        <v>3569.77</v>
+        <v>7504.57</v>
       </c>
       <c r="C21" s="25">
-        <v>1128.1099999999999</v>
+        <v>783.22400000000005</v>
       </c>
       <c r="E21" s="23">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="F21" s="30">
-        <v>16039.7</v>
+        <v>34626.76</v>
       </c>
       <c r="G21" s="31">
-        <v>391.95800000000003</v>
+        <v>259.60700000000003</v>
       </c>
       <c r="J21" s="23">
         <f t="shared" si="2"/>
@@ -28393,20 +28424,20 @@
         <v>24</v>
       </c>
       <c r="B22" s="26">
-        <v>3835.41</v>
+        <v>8624.51</v>
       </c>
       <c r="C22" s="27">
-        <v>1001.5</v>
+        <v>740.86599999999999</v>
       </c>
       <c r="E22" s="23">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="F22" s="32">
-        <v>16022.19</v>
+        <v>34639.49</v>
       </c>
       <c r="G22" s="33">
-        <v>402.10599999999999</v>
+        <v>263.03699999999998</v>
       </c>
       <c r="J22" s="23">
         <f t="shared" si="2"/>
@@ -28435,20 +28466,20 @@
         <v>25</v>
       </c>
       <c r="B23" s="24">
-        <v>3186.92</v>
+        <v>7145.9</v>
       </c>
       <c r="C23" s="25">
-        <v>993.05399999999997</v>
+        <v>825.01300000000003</v>
       </c>
       <c r="E23" s="23">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="F23" s="30">
-        <v>16046.35</v>
+        <v>34627.1</v>
       </c>
       <c r="G23" s="31">
-        <v>392.76799999999997</v>
+        <v>265.245</v>
       </c>
       <c r="J23" s="23">
         <f t="shared" si="2"/>
@@ -28477,20 +28508,20 @@
         <v>26</v>
       </c>
       <c r="B24" s="26">
-        <v>3123.7</v>
+        <v>6411.66</v>
       </c>
       <c r="C24" s="27">
-        <v>840.22199999999998</v>
+        <v>643.26099999999997</v>
       </c>
       <c r="E24" s="23">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="F24" s="32">
-        <v>16051.96</v>
+        <v>34584.29</v>
       </c>
       <c r="G24" s="33">
-        <v>379.95699999999999</v>
+        <v>269.51</v>
       </c>
       <c r="J24" s="23">
         <f t="shared" si="2"/>
@@ -28519,20 +28550,20 @@
         <v>27</v>
       </c>
       <c r="B25" s="24">
-        <v>2265.94</v>
+        <v>5202.13</v>
       </c>
       <c r="C25" s="25">
-        <v>1174.26</v>
+        <v>951.89599999999996</v>
       </c>
       <c r="E25" s="23">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="F25" s="30">
-        <v>16035.84</v>
+        <v>34583.480000000003</v>
       </c>
       <c r="G25" s="31">
-        <v>379.024</v>
+        <v>267.58499999999998</v>
       </c>
       <c r="J25" s="23">
         <f t="shared" si="2"/>
@@ -28561,20 +28592,20 @@
         <v>28</v>
       </c>
       <c r="B26" s="26">
-        <v>1686.83</v>
+        <v>3892.02</v>
       </c>
       <c r="C26" s="27">
-        <v>941.95699999999999</v>
+        <v>922.65200000000004</v>
       </c>
       <c r="E26" s="23">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="F26" s="32">
-        <v>15876.69</v>
+        <v>34198.82</v>
       </c>
       <c r="G26" s="33">
-        <v>381.72199999999998</v>
+        <v>253.78299999999999</v>
       </c>
       <c r="J26" s="23">
         <f t="shared" si="2"/>
@@ -28603,20 +28634,20 @@
         <v>29</v>
       </c>
       <c r="B27" s="24">
-        <v>1531.93</v>
+        <v>3387.82</v>
       </c>
       <c r="C27" s="25">
-        <v>1004.56</v>
+        <v>1044.58</v>
       </c>
       <c r="E27" s="23">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="F27" s="30">
-        <v>3137.8</v>
+        <v>34014.58</v>
       </c>
       <c r="G27" s="31">
-        <v>423.48099999999999</v>
+        <v>209.22499999999999</v>
       </c>
       <c r="J27" s="23">
         <f t="shared" si="2"/>
@@ -28645,20 +28676,20 @@
         <v>30</v>
       </c>
       <c r="B28" s="26">
-        <v>1124.52</v>
+        <v>2859.63</v>
       </c>
       <c r="C28" s="27">
-        <v>874.13900000000001</v>
+        <v>965.26300000000003</v>
       </c>
       <c r="E28" s="23">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="F28" s="32">
-        <v>16048.9</v>
+        <v>34591.69</v>
       </c>
       <c r="G28" s="33">
-        <v>380.72</v>
+        <v>269.44200000000001</v>
       </c>
       <c r="J28" s="23">
         <f t="shared" si="2"/>
@@ -28687,22 +28718,22 @@
       </c>
       <c r="B29" s="29">
         <f>AVERAGE(B7:B28)</f>
-        <v>6216.2499999999973</v>
+        <v>13500.983181818185</v>
       </c>
       <c r="C29" s="29">
         <f>AVERAGE(C7:C28)</f>
-        <v>766.18827272727276</v>
+        <v>586.6379545454547</v>
       </c>
       <c r="E29" s="28" t="s">
         <v>25</v>
       </c>
       <c r="F29" s="29">
         <f>AVERAGE(F7:F28)</f>
-        <v>17565.03090909091</v>
+        <v>34530.208181818176</v>
       </c>
       <c r="G29" s="29">
         <f>AVERAGE(G7:G28)</f>
-        <v>383.83331818181813</v>
+        <v>262.02304545454547</v>
       </c>
       <c r="J29" s="28" t="s">
         <v>25</v>
@@ -28733,22 +28764,22 @@
       </c>
       <c r="B30" s="29">
         <f>AVEDEV(B7:B28)</f>
-        <v>2936.0536363636365</v>
+        <v>6285.0986363636357</v>
       </c>
       <c r="C30" s="29">
         <f>AVEDEV(C7:C28)</f>
-        <v>201.0212479338843</v>
+        <v>205.78404132231407</v>
       </c>
       <c r="E30" s="28" t="s">
         <v>26</v>
       </c>
       <c r="F30" s="29">
         <f>AVEDEV(F7:F28)</f>
-        <v>4456.8707438016536</v>
+        <v>130.13586776859964</v>
       </c>
       <c r="G30" s="29">
         <f>AVEDEV(G7:G28)</f>
-        <v>28.202657024793407</v>
+        <v>7.8792933884297414</v>
       </c>
       <c r="J30" s="28" t="s">
         <v>26</v>
@@ -28773,83 +28804,93 @@
         <v>140.39987603305784</v>
       </c>
     </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f>B29/F29*100</f>
+        <v>39.099049477862998</v>
+      </c>
+      <c r="C32">
+        <f>G29/C29 * 100</f>
+        <v>44.665205076539763</v>
+      </c>
+    </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="57" t="s">
+      <c r="A88" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B88" s="57"/>
-      <c r="C88" s="57"/>
-      <c r="D88" s="57"/>
-      <c r="E88" s="57"/>
-      <c r="F88" s="57"/>
-      <c r="G88" s="57"/>
-      <c r="H88" s="57"/>
-      <c r="I88" s="57"/>
-      <c r="J88" s="57"/>
-      <c r="K88" s="57"/>
-      <c r="L88" s="57"/>
-      <c r="M88" s="57"/>
-      <c r="N88" s="57"/>
-      <c r="O88" s="57"/>
-      <c r="P88" s="57"/>
+      <c r="B88" s="56"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="56"/>
+      <c r="G88" s="56"/>
+      <c r="H88" s="56"/>
+      <c r="I88" s="56"/>
+      <c r="J88" s="56"/>
+      <c r="K88" s="56"/>
+      <c r="L88" s="56"/>
+      <c r="M88" s="56"/>
+      <c r="N88" s="56"/>
+      <c r="O88" s="56"/>
+      <c r="P88" s="56"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="52" t="s">
+      <c r="A89" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B89" s="52"/>
-      <c r="C89" s="52"/>
-      <c r="D89" s="52"/>
-      <c r="E89" s="52"/>
-      <c r="F89" s="52"/>
-      <c r="G89" s="52"/>
-      <c r="J89" s="52" t="s">
+      <c r="B89" s="55"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="55"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="55"/>
+      <c r="J89" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="K89" s="52"/>
-      <c r="L89" s="52"/>
-      <c r="M89" s="52"/>
-      <c r="N89" s="52"/>
-      <c r="O89" s="52"/>
-      <c r="P89" s="52"/>
+      <c r="K89" s="55"/>
+      <c r="L89" s="55"/>
+      <c r="M89" s="55"/>
+      <c r="N89" s="55"/>
+      <c r="O89" s="55"/>
+      <c r="P89" s="55"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="52"/>
-      <c r="B90" s="52"/>
-      <c r="C90" s="52"/>
-      <c r="D90" s="52"/>
-      <c r="E90" s="52"/>
-      <c r="F90" s="52"/>
-      <c r="G90" s="52"/>
-      <c r="J90" s="52"/>
-      <c r="K90" s="52"/>
-      <c r="L90" s="52"/>
-      <c r="M90" s="52"/>
-      <c r="N90" s="52"/>
-      <c r="O90" s="52"/>
-      <c r="P90" s="52"/>
+      <c r="A90" s="55"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="55"/>
+      <c r="J90" s="55"/>
+      <c r="K90" s="55"/>
+      <c r="L90" s="55"/>
+      <c r="M90" s="55"/>
+      <c r="N90" s="55"/>
+      <c r="O90" s="55"/>
+      <c r="P90" s="55"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="51" t="s">
+      <c r="A91" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B91" s="51"/>
-      <c r="C91" s="51"/>
-      <c r="E91" s="51" t="s">
+      <c r="B91" s="54"/>
+      <c r="C91" s="54"/>
+      <c r="E91" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="51"/>
-      <c r="G91" s="51"/>
-      <c r="J91" s="51" t="s">
+      <c r="F91" s="54"/>
+      <c r="G91" s="54"/>
+      <c r="J91" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="51"/>
-      <c r="L91" s="51"/>
-      <c r="N91" s="51" t="s">
+      <c r="K91" s="54"/>
+      <c r="L91" s="54"/>
+      <c r="N91" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="O91" s="51"/>
-      <c r="P91" s="51"/>
+      <c r="O91" s="54"/>
+      <c r="P91" s="54"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
@@ -28908,8 +28949,8 @@
       <c r="G93" s="40">
         <v>256.10199999999998</v>
       </c>
-      <c r="H93" s="42"/>
-      <c r="I93" s="42"/>
+      <c r="H93" s="41"/>
+      <c r="I93" s="41"/>
       <c r="J93" s="38">
         <v>9</v>
       </c>
@@ -28922,10 +28963,10 @@
       <c r="N93" s="23">
         <v>9</v>
       </c>
-      <c r="O93" s="56">
+      <c r="O93" s="44">
         <v>32305.86</v>
       </c>
-      <c r="P93" s="55">
+      <c r="P93" s="43">
         <v>688.44799999999998</v>
       </c>
     </row>
@@ -28944,32 +28985,32 @@
         <f>E93+1</f>
         <v>10</v>
       </c>
-      <c r="F94" s="43">
+      <c r="F94" s="42">
         <v>28757.1</v>
       </c>
-      <c r="G94" s="43">
+      <c r="G94" s="42">
         <v>251.94</v>
       </c>
-      <c r="H94" s="42"/>
-      <c r="I94" s="42"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="41"/>
       <c r="J94" s="38">
         <f>J93+1</f>
         <v>10</v>
       </c>
-      <c r="K94" s="43">
+      <c r="K94" s="42">
         <v>26423.11</v>
       </c>
-      <c r="L94" s="43">
+      <c r="L94" s="42">
         <v>311.55399999999997</v>
       </c>
       <c r="N94" s="23">
         <f>N93+1</f>
         <v>10</v>
       </c>
-      <c r="O94" s="55">
+      <c r="O94" s="43">
         <v>34013.17</v>
       </c>
-      <c r="P94" s="56">
+      <c r="P94" s="44">
         <v>370.84800000000001</v>
       </c>
     </row>
@@ -28994,8 +29035,8 @@
       <c r="G95" s="40">
         <v>386.041</v>
       </c>
-      <c r="H95" s="42"/>
-      <c r="I95" s="42"/>
+      <c r="H95" s="41"/>
+      <c r="I95" s="41"/>
       <c r="J95" s="38">
         <f t="shared" ref="J95:J114" si="6">J94+1</f>
         <v>11</v>
@@ -29010,10 +29051,10 @@
         <f t="shared" ref="N95:N114" si="7">N94+1</f>
         <v>11</v>
       </c>
-      <c r="O95" s="56">
+      <c r="O95" s="44">
         <v>41213.839999999997</v>
       </c>
-      <c r="P95" s="55">
+      <c r="P95" s="43">
         <v>275.274</v>
       </c>
     </row>
@@ -29032,32 +29073,32 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="F96" s="43">
+      <c r="F96" s="42">
         <v>16051.87</v>
       </c>
-      <c r="G96" s="43">
+      <c r="G96" s="42">
         <v>382.02199999999999</v>
       </c>
-      <c r="H96" s="42"/>
-      <c r="I96" s="42"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="41"/>
       <c r="J96" s="38">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="K96" s="43">
+      <c r="K96" s="42">
         <v>30838.47</v>
       </c>
-      <c r="L96" s="43">
+      <c r="L96" s="42">
         <v>547.89</v>
       </c>
       <c r="N96" s="23">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="O96" s="55">
+      <c r="O96" s="43">
         <v>0</v>
       </c>
-      <c r="P96" s="56">
+      <c r="P96" s="44">
         <v>999</v>
       </c>
     </row>
@@ -29082,8 +29123,8 @@
       <c r="G97" s="40">
         <v>506.88799999999998</v>
       </c>
-      <c r="H97" s="42"/>
-      <c r="I97" s="42"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
       <c r="J97" s="38">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -29098,10 +29139,10 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="O97" s="56">
+      <c r="O97" s="44">
         <v>31403.32</v>
       </c>
-      <c r="P97" s="55">
+      <c r="P97" s="43">
         <v>596.43600000000004</v>
       </c>
     </row>
@@ -29120,32 +29161,32 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="F98" s="43">
+      <c r="F98" s="42">
         <v>15751.84</v>
       </c>
-      <c r="G98" s="43">
+      <c r="G98" s="42">
         <v>512.85</v>
       </c>
-      <c r="H98" s="42"/>
-      <c r="I98" s="42"/>
+      <c r="H98" s="41"/>
+      <c r="I98" s="41"/>
       <c r="J98" s="38">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="K98" s="43">
+      <c r="K98" s="42">
         <v>26380</v>
       </c>
-      <c r="L98" s="43">
+      <c r="L98" s="42">
         <v>310.28300000000002</v>
       </c>
       <c r="N98" s="23">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="O98" s="55">
+      <c r="O98" s="43">
         <v>3722.35</v>
       </c>
-      <c r="P98" s="56">
+      <c r="P98" s="44">
         <v>368.38200000000001</v>
       </c>
     </row>
@@ -29170,8 +29211,8 @@
       <c r="G99" s="40">
         <v>364.678</v>
       </c>
-      <c r="H99" s="42"/>
-      <c r="I99" s="42"/>
+      <c r="H99" s="41"/>
+      <c r="I99" s="41"/>
       <c r="J99" s="38">
         <f t="shared" si="6"/>
         <v>15</v>
@@ -29186,10 +29227,10 @@
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="O99" s="56">
+      <c r="O99" s="44">
         <v>41753.449999999997</v>
       </c>
-      <c r="P99" s="55">
+      <c r="P99" s="43">
         <v>319.61700000000002</v>
       </c>
     </row>
@@ -29208,32 +29249,32 @@
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="F100" s="43">
+      <c r="F100" s="42">
         <v>16023.25</v>
       </c>
-      <c r="G100" s="43">
+      <c r="G100" s="42">
         <v>365.72699999999998</v>
       </c>
-      <c r="H100" s="42"/>
-      <c r="I100" s="42"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="41"/>
       <c r="J100" s="38">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="K100" s="43">
+      <c r="K100" s="42">
         <v>29860.94</v>
       </c>
-      <c r="L100" s="43">
+      <c r="L100" s="42">
         <v>308.92700000000002</v>
       </c>
       <c r="N100" s="23">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="O100" s="55">
+      <c r="O100" s="43">
         <v>42584.76</v>
       </c>
-      <c r="P100" s="56">
+      <c r="P100" s="44">
         <v>315.26400000000001</v>
       </c>
     </row>
@@ -29258,8 +29299,8 @@
       <c r="G101" s="40">
         <v>376.01400000000001</v>
       </c>
-      <c r="H101" s="42"/>
-      <c r="I101" s="42"/>
+      <c r="H101" s="41"/>
+      <c r="I101" s="41"/>
       <c r="J101" s="38">
         <f t="shared" si="6"/>
         <v>17</v>
@@ -29274,10 +29315,10 @@
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="O101" s="56">
+      <c r="O101" s="44">
         <v>43015.86</v>
       </c>
-      <c r="P101" s="55">
+      <c r="P101" s="43">
         <v>297.654</v>
       </c>
     </row>
@@ -29296,32 +29337,32 @@
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="F102" s="43">
+      <c r="F102" s="42">
         <v>16020.26</v>
       </c>
-      <c r="G102" s="43">
+      <c r="G102" s="42">
         <v>379.67200000000003</v>
       </c>
-      <c r="H102" s="42"/>
-      <c r="I102" s="42"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="41"/>
       <c r="J102" s="38">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="K102" s="43">
+      <c r="K102" s="42">
         <v>22974.86</v>
       </c>
-      <c r="L102" s="43">
+      <c r="L102" s="42">
         <v>414.11200000000002</v>
       </c>
       <c r="N102" s="23">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="O102" s="55">
+      <c r="O102" s="43">
         <v>41578.15</v>
       </c>
-      <c r="P102" s="56">
+      <c r="P102" s="44">
         <v>316.27300000000002</v>
       </c>
     </row>
@@ -29346,8 +29387,8 @@
       <c r="G103" s="40">
         <v>999</v>
       </c>
-      <c r="H103" s="42"/>
-      <c r="I103" s="42"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="41"/>
       <c r="J103" s="38">
         <f t="shared" si="6"/>
         <v>19</v>
@@ -29362,10 +29403,10 @@
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="O103" s="56">
+      <c r="O103" s="44">
         <v>41929.71</v>
       </c>
-      <c r="P103" s="55">
+      <c r="P103" s="43">
         <v>314.49700000000001</v>
       </c>
     </row>
@@ -29384,32 +29425,32 @@
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="F104" s="43">
+      <c r="F104" s="42">
         <v>0</v>
       </c>
-      <c r="G104" s="43">
+      <c r="G104" s="42">
         <v>999</v>
       </c>
-      <c r="H104" s="42"/>
-      <c r="I104" s="42"/>
+      <c r="H104" s="41"/>
+      <c r="I104" s="41"/>
       <c r="J104" s="38">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="K104" s="43">
+      <c r="K104" s="42">
         <v>15789.52</v>
       </c>
-      <c r="L104" s="43">
+      <c r="L104" s="42">
         <v>466.10199999999998</v>
       </c>
       <c r="N104" s="23">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="O104" s="55">
+      <c r="O104" s="43">
         <v>27677.96</v>
       </c>
-      <c r="P104" s="56">
+      <c r="P104" s="44">
         <v>456.32299999999998</v>
       </c>
     </row>
@@ -29434,8 +29475,8 @@
       <c r="G105" s="40">
         <v>999</v>
       </c>
-      <c r="H105" s="42"/>
-      <c r="I105" s="42"/>
+      <c r="H105" s="41"/>
+      <c r="I105" s="41"/>
       <c r="J105" s="38">
         <f t="shared" si="6"/>
         <v>21</v>
@@ -29450,10 +29491,10 @@
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="O105" s="56">
+      <c r="O105" s="44">
         <v>0</v>
       </c>
-      <c r="P105" s="55">
+      <c r="P105" s="43">
         <v>999</v>
       </c>
     </row>
@@ -29472,32 +29513,32 @@
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="F106" s="43">
+      <c r="F106" s="42">
         <v>10842.5</v>
       </c>
-      <c r="G106" s="43">
+      <c r="G106" s="42">
         <v>498.27600000000001</v>
       </c>
-      <c r="H106" s="42"/>
-      <c r="I106" s="42"/>
+      <c r="H106" s="41"/>
+      <c r="I106" s="41"/>
       <c r="J106" s="38">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="K106" s="43">
+      <c r="K106" s="42">
         <v>24518.53</v>
       </c>
-      <c r="L106" s="43">
+      <c r="L106" s="42">
         <v>769.92600000000004</v>
       </c>
       <c r="N106" s="23">
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="O106" s="55">
+      <c r="O106" s="43">
         <v>30659.16</v>
       </c>
-      <c r="P106" s="56">
+      <c r="P106" s="44">
         <v>837.56700000000001</v>
       </c>
     </row>
@@ -29522,8 +29563,8 @@
       <c r="G107" s="40">
         <v>376.29700000000003</v>
       </c>
-      <c r="H107" s="42"/>
-      <c r="I107" s="42"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="41"/>
       <c r="J107" s="38">
         <f t="shared" si="6"/>
         <v>23</v>
@@ -29538,10 +29579,10 @@
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="O107" s="56">
+      <c r="O107" s="44">
         <v>7598.85</v>
       </c>
-      <c r="P107" s="55">
+      <c r="P107" s="43">
         <v>837.97400000000005</v>
       </c>
     </row>
@@ -29560,32 +29601,32 @@
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="F108" s="43">
+      <c r="F108" s="42">
         <v>0</v>
       </c>
-      <c r="G108" s="43">
+      <c r="G108" s="42">
         <v>999</v>
       </c>
-      <c r="H108" s="42"/>
-      <c r="I108" s="42"/>
+      <c r="H108" s="41"/>
+      <c r="I108" s="41"/>
       <c r="J108" s="38">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="K108" s="43">
+      <c r="K108" s="42">
         <v>18900.849999999999</v>
       </c>
-      <c r="L108" s="43">
+      <c r="L108" s="42">
         <v>1087.8399999999999</v>
       </c>
       <c r="N108" s="23">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="O108" s="55">
+      <c r="O108" s="43">
         <v>28733.3</v>
       </c>
-      <c r="P108" s="56">
+      <c r="P108" s="44">
         <v>1028.4100000000001</v>
       </c>
     </row>
@@ -29610,8 +29651,8 @@
       <c r="G109" s="40">
         <v>999</v>
       </c>
-      <c r="H109" s="42"/>
-      <c r="I109" s="42"/>
+      <c r="H109" s="41"/>
+      <c r="I109" s="41"/>
       <c r="J109" s="38">
         <f t="shared" si="6"/>
         <v>25</v>
@@ -29626,10 +29667,10 @@
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="O109" s="56">
+      <c r="O109" s="44">
         <v>32709.4</v>
       </c>
-      <c r="P109" s="55">
+      <c r="P109" s="43">
         <v>808.68899999999996</v>
       </c>
     </row>
@@ -29648,32 +29689,32 @@
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="F110" s="43">
+      <c r="F110" s="42">
         <v>16048.48</v>
       </c>
-      <c r="G110" s="43">
+      <c r="G110" s="42">
         <v>374.92700000000002</v>
       </c>
-      <c r="H110" s="42"/>
-      <c r="I110" s="42"/>
+      <c r="H110" s="41"/>
+      <c r="I110" s="41"/>
       <c r="J110" s="38">
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="K110" s="43">
+      <c r="K110" s="42">
         <v>24753.439999999999</v>
       </c>
-      <c r="L110" s="43">
+      <c r="L110" s="42">
         <v>754.798</v>
       </c>
       <c r="N110" s="23">
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="O110" s="55">
+      <c r="O110" s="43">
         <v>33271.480000000003</v>
       </c>
-      <c r="P110" s="56">
+      <c r="P110" s="44">
         <v>863.56600000000003</v>
       </c>
     </row>
@@ -29698,8 +29739,8 @@
       <c r="G111" s="40">
         <v>999</v>
       </c>
-      <c r="H111" s="42"/>
-      <c r="I111" s="42"/>
+      <c r="H111" s="41"/>
+      <c r="I111" s="41"/>
       <c r="J111" s="38">
         <f t="shared" si="6"/>
         <v>27</v>
@@ -29714,10 +29755,10 @@
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="O111" s="56">
+      <c r="O111" s="44">
         <v>44230.45</v>
       </c>
-      <c r="P111" s="55">
+      <c r="P111" s="43">
         <v>357.315</v>
       </c>
     </row>
@@ -29736,32 +29777,32 @@
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="F112" s="43">
+      <c r="F112" s="42">
         <v>16052.19</v>
       </c>
-      <c r="G112" s="43">
+      <c r="G112" s="42">
         <v>375.87599999999998</v>
       </c>
-      <c r="H112" s="42"/>
-      <c r="I112" s="42"/>
+      <c r="H112" s="41"/>
+      <c r="I112" s="41"/>
       <c r="J112" s="38">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="K112" s="43">
+      <c r="K112" s="42">
         <v>24222.51</v>
       </c>
-      <c r="L112" s="43">
+      <c r="L112" s="42">
         <v>592.40200000000004</v>
       </c>
       <c r="N112" s="23">
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="O112" s="55">
+      <c r="O112" s="43">
         <v>29644.62</v>
       </c>
-      <c r="P112" s="56">
+      <c r="P112" s="44">
         <v>666.678</v>
       </c>
     </row>
@@ -29786,8 +29827,8 @@
       <c r="G113" s="40">
         <v>383.21</v>
       </c>
-      <c r="H113" s="42"/>
-      <c r="I113" s="42"/>
+      <c r="H113" s="41"/>
+      <c r="I113" s="41"/>
       <c r="J113" s="38">
         <f t="shared" si="6"/>
         <v>29</v>
@@ -29802,10 +29843,10 @@
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="O113" s="56">
+      <c r="O113" s="44">
         <v>45771.47</v>
       </c>
-      <c r="P113" s="55">
+      <c r="P113" s="43">
         <v>322.572</v>
       </c>
     </row>
@@ -29824,32 +29865,32 @@
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="F114" s="43">
+      <c r="F114" s="42">
         <v>15988.19</v>
       </c>
-      <c r="G114" s="43">
+      <c r="G114" s="42">
         <v>350.113</v>
       </c>
-      <c r="H114" s="42"/>
-      <c r="I114" s="42"/>
+      <c r="H114" s="41"/>
+      <c r="I114" s="41"/>
       <c r="J114" s="38">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="K114" s="43">
+      <c r="K114" s="42">
         <v>33224.019999999997</v>
       </c>
-      <c r="L114" s="43">
+      <c r="L114" s="42">
         <v>332.16800000000001</v>
       </c>
       <c r="N114" s="23">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="O114" s="55">
+      <c r="O114" s="43">
         <v>46353.68</v>
       </c>
-      <c r="P114" s="56">
+      <c r="P114" s="44">
         <v>345.84800000000001</v>
       </c>
     </row>
@@ -29946,79 +29987,103 @@
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="58" t="s">
+      <c r="A118" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B118" s="58"/>
-      <c r="C118" s="58"/>
-      <c r="D118" s="58"/>
-      <c r="E118" s="58"/>
-      <c r="F118" s="58"/>
-      <c r="G118" s="58"/>
-      <c r="H118" s="58"/>
-      <c r="I118" s="58"/>
-      <c r="J118" s="58"/>
-      <c r="K118" s="58"/>
-      <c r="L118" s="58"/>
-      <c r="M118" s="58"/>
-      <c r="N118" s="58"/>
-      <c r="O118" s="58"/>
+      <c r="B118" s="57"/>
+      <c r="C118" s="57"/>
+      <c r="D118" s="57"/>
+      <c r="E118" s="57"/>
+      <c r="F118" s="57"/>
+      <c r="G118" s="57"/>
+      <c r="H118" s="57"/>
+      <c r="I118" s="57"/>
+      <c r="J118" s="57"/>
+      <c r="K118" s="57"/>
+      <c r="L118" s="57"/>
+      <c r="M118" s="57"/>
+      <c r="N118" s="57"/>
+      <c r="O118" s="57"/>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="58"/>
-      <c r="B119" s="58"/>
-      <c r="C119" s="58"/>
-      <c r="D119" s="58"/>
-      <c r="E119" s="58"/>
-      <c r="F119" s="58"/>
-      <c r="G119" s="58"/>
-      <c r="H119" s="58"/>
-      <c r="I119" s="58"/>
-      <c r="J119" s="58"/>
-      <c r="K119" s="58"/>
-      <c r="L119" s="58"/>
-      <c r="M119" s="58"/>
-      <c r="N119" s="58"/>
-      <c r="O119" s="58"/>
+      <c r="A119" s="57"/>
+      <c r="B119" s="57"/>
+      <c r="C119" s="57"/>
+      <c r="D119" s="57"/>
+      <c r="E119" s="57"/>
+      <c r="F119" s="57"/>
+      <c r="G119" s="57"/>
+      <c r="H119" s="57"/>
+      <c r="I119" s="57"/>
+      <c r="J119" s="57"/>
+      <c r="K119" s="57"/>
+      <c r="L119" s="57"/>
+      <c r="M119" s="57"/>
+      <c r="N119" s="57"/>
+      <c r="O119" s="57"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F120" s="20"/>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A166" s="58" t="s">
+      <c r="A166" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B166" s="58"/>
-      <c r="C166" s="58"/>
-      <c r="D166" s="58"/>
-      <c r="E166" s="58"/>
-      <c r="F166" s="58"/>
-      <c r="G166" s="58"/>
-      <c r="H166" s="58"/>
-      <c r="I166" s="58"/>
-      <c r="J166" s="58"/>
-      <c r="K166" s="58"/>
-      <c r="L166" s="58"/>
-      <c r="M166" s="58"/>
-      <c r="N166" s="58"/>
-      <c r="O166" s="58"/>
+      <c r="B166" s="57"/>
+      <c r="C166" s="57"/>
+      <c r="D166" s="57"/>
+      <c r="E166" s="57"/>
+      <c r="F166" s="57"/>
+      <c r="G166" s="57"/>
+      <c r="H166" s="57"/>
+      <c r="I166" s="57"/>
+      <c r="J166" s="57"/>
+      <c r="K166" s="57"/>
+      <c r="L166" s="57"/>
+      <c r="M166" s="57"/>
+      <c r="N166" s="57"/>
+      <c r="O166" s="57"/>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A167" s="58"/>
-      <c r="B167" s="58"/>
-      <c r="C167" s="58"/>
-      <c r="D167" s="58"/>
-      <c r="E167" s="58"/>
-      <c r="F167" s="58"/>
-      <c r="G167" s="58"/>
-      <c r="H167" s="58"/>
-      <c r="I167" s="58"/>
-      <c r="J167" s="58"/>
-      <c r="K167" s="58"/>
-      <c r="L167" s="58"/>
-      <c r="M167" s="58"/>
-      <c r="N167" s="58"/>
-      <c r="O167" s="58"/>
+      <c r="A167" s="57"/>
+      <c r="B167" s="57"/>
+      <c r="C167" s="57"/>
+      <c r="D167" s="57"/>
+      <c r="E167" s="57"/>
+      <c r="F167" s="57"/>
+      <c r="G167" s="57"/>
+      <c r="H167" s="57"/>
+      <c r="I167" s="57"/>
+      <c r="J167" s="57"/>
+      <c r="K167" s="57"/>
+      <c r="L167" s="57"/>
+      <c r="M167" s="57"/>
+      <c r="N167" s="57"/>
+      <c r="O167" s="57"/>
+    </row>
+    <row r="229" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="230" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E230" s="60"/>
+      <c r="F230" s="60">
+        <v>781883.06</v>
+      </c>
+      <c r="G230">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="231" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F231" s="60">
+        <v>10900.48</v>
+      </c>
+      <c r="G231" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="233" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E233">
+        <f>F231-F230</f>
+        <v>-770982.58000000007</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -30048,8 +30113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4ACD3C-AAC8-4063-8087-398117664499}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30078,67 +30143,67 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="1"/>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="1"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="1"/>
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="54" t="s">
+      <c r="O4" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
@@ -30188,10 +30253,10 @@
       <c r="B6" s="40">
         <v>1730.9</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="45">
         <v>18.113499999999998</v>
       </c>
-      <c r="D6" s="42"/>
+      <c r="D6" s="41"/>
       <c r="E6" s="23">
         <v>9</v>
       </c>
@@ -30211,7 +30276,7 @@
       <c r="M6" s="40">
         <v>24.148800000000001</v>
       </c>
-      <c r="N6" s="42"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="23">
         <v>9</v>
       </c>
@@ -30227,21 +30292,21 @@
         <f>A6+1</f>
         <v>10</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="42">
         <v>1747.21</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="46">
         <v>18.346900000000002</v>
       </c>
-      <c r="D7" s="42"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="23">
         <f>E6+1</f>
         <v>10</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="42">
         <v>2206.8000000000002</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="42">
         <v>17.850899999999999</v>
       </c>
       <c r="H7" s="1"/>
@@ -30249,21 +30314,21 @@
         <f>K6+1</f>
         <v>10</v>
       </c>
-      <c r="L7" s="43">
+      <c r="L7" s="42">
         <v>3909.97</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="42">
         <v>23.755299999999998</v>
       </c>
-      <c r="N7" s="42"/>
+      <c r="N7" s="41"/>
       <c r="O7" s="23">
         <f>O6+1</f>
         <v>10</v>
       </c>
-      <c r="P7" s="43">
+      <c r="P7" s="42">
         <v>4856.99</v>
       </c>
-      <c r="Q7" s="43">
+      <c r="Q7" s="42">
         <v>23.189399999999999</v>
       </c>
     </row>
@@ -30275,10 +30340,10 @@
       <c r="B8" s="40">
         <v>1743.62</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="45">
         <v>18.654499999999999</v>
       </c>
-      <c r="D8" s="42"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="23">
         <f t="shared" ref="E8:E27" si="1">E7+1</f>
         <v>11</v>
@@ -30300,7 +30365,7 @@
       <c r="M8" s="40">
         <v>21.907599999999999</v>
       </c>
-      <c r="N8" s="42"/>
+      <c r="N8" s="41"/>
       <c r="O8" s="23">
         <f t="shared" ref="O8:O27" si="3">O7+1</f>
         <v>11</v>
@@ -30317,21 +30382,21 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="42">
         <v>1731.04</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="46">
         <v>18.886900000000001</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="23">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="42">
         <v>2128.31</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="42">
         <v>17.844999999999999</v>
       </c>
       <c r="H9" s="1"/>
@@ -30339,21 +30404,21 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="42">
         <v>4640.7299999999996</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="42">
         <v>39.0944</v>
       </c>
-      <c r="N9" s="42"/>
+      <c r="N9" s="41"/>
       <c r="O9" s="23">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="P9" s="43">
+      <c r="P9" s="42">
         <v>4241.79</v>
       </c>
-      <c r="Q9" s="43">
+      <c r="Q9" s="42">
         <v>16.6617</v>
       </c>
     </row>
@@ -30365,10 +30430,10 @@
       <c r="B10" s="40">
         <v>1744.3</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="45">
         <v>19.6387</v>
       </c>
-      <c r="D10" s="42"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="23">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -30390,7 +30455,7 @@
       <c r="M10" s="40">
         <v>26.0258</v>
       </c>
-      <c r="N10" s="42"/>
+      <c r="N10" s="41"/>
       <c r="O10" s="23">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -30407,21 +30472,21 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="42">
         <v>1727.12</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="46">
         <v>20.494199999999999</v>
       </c>
-      <c r="D11" s="42"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="23">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="42">
         <v>2191.39</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="42">
         <v>17.892199999999999</v>
       </c>
       <c r="H11" s="1"/>
@@ -30429,21 +30494,21 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="L11" s="43">
+      <c r="L11" s="42">
         <v>4235.29</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="42">
         <v>16.781099999999999</v>
       </c>
-      <c r="N11" s="42"/>
+      <c r="N11" s="41"/>
       <c r="O11" s="23">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="P11" s="43">
+      <c r="P11" s="42">
         <v>4235.29</v>
       </c>
-      <c r="Q11" s="43">
+      <c r="Q11" s="42">
         <v>16.781099999999999</v>
       </c>
     </row>
@@ -30455,10 +30520,10 @@
       <c r="B12" s="40">
         <v>1724.26</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="45">
         <v>20.556999999999999</v>
       </c>
-      <c r="D12" s="42"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="23">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -30480,7 +30545,7 @@
       <c r="M12" s="40">
         <v>847.47699999999998</v>
       </c>
-      <c r="N12" s="42"/>
+      <c r="N12" s="41"/>
       <c r="O12" s="23">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -30497,21 +30562,21 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="42">
         <v>1736.51</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="46">
         <v>21.340599999999998</v>
       </c>
-      <c r="D13" s="42"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="23">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F13" s="42">
         <v>2200.15</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G13" s="42">
         <v>17.856100000000001</v>
       </c>
       <c r="H13" s="1"/>
@@ -30519,21 +30584,21 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="L13" s="43">
+      <c r="L13" s="42">
         <v>20598.57</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="42">
         <v>832.61199999999997</v>
       </c>
-      <c r="N13" s="42"/>
+      <c r="N13" s="41"/>
       <c r="O13" s="23">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="P13" s="43">
+      <c r="P13" s="42">
         <v>28364.54</v>
       </c>
-      <c r="Q13" s="43">
+      <c r="Q13" s="42">
         <v>712.83299999999997</v>
       </c>
     </row>
@@ -30545,10 +30610,10 @@
       <c r="B14" s="40">
         <v>1750.19</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="45">
         <v>21.589400000000001</v>
       </c>
-      <c r="D14" s="42"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="23">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -30570,7 +30635,7 @@
       <c r="M14" s="40">
         <v>871.10799999999995</v>
       </c>
-      <c r="N14" s="42"/>
+      <c r="N14" s="41"/>
       <c r="O14" s="23">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -30587,21 +30652,21 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B15" s="43">
-        <v>2217.86</v>
-      </c>
-      <c r="C15" s="44">
-        <v>30.7121</v>
-      </c>
-      <c r="D15" s="42"/>
+      <c r="B15" s="42">
+        <v>1813.57</v>
+      </c>
+      <c r="C15" s="46">
+        <v>29.792899999999999</v>
+      </c>
+      <c r="D15" s="41"/>
       <c r="E15" s="23">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="42">
         <v>2211.8200000000002</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="42">
         <v>17.874600000000001</v>
       </c>
       <c r="H15" s="1"/>
@@ -30609,21 +30674,21 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="L15" s="43">
+      <c r="L15" s="42">
         <v>2923.67</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="42">
         <v>17.416699999999999</v>
       </c>
-      <c r="N15" s="42"/>
+      <c r="N15" s="41"/>
       <c r="O15" s="23">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="P15" s="43">
+      <c r="P15" s="42">
         <v>3877.61</v>
       </c>
-      <c r="Q15" s="43">
+      <c r="Q15" s="42">
         <v>13.749599999999999</v>
       </c>
     </row>
@@ -30633,12 +30698,12 @@
         <v>19</v>
       </c>
       <c r="B16" s="40">
-        <v>2570.38</v>
-      </c>
-      <c r="C16" s="41">
-        <v>64.997200000000007</v>
-      </c>
-      <c r="D16" s="42"/>
+        <v>1820.52</v>
+      </c>
+      <c r="C16" s="45">
+        <v>45.331000000000003</v>
+      </c>
+      <c r="D16" s="41"/>
       <c r="E16" s="23">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -30660,7 +30725,7 @@
       <c r="M16" s="40">
         <v>32.629199999999997</v>
       </c>
-      <c r="N16" s="42"/>
+      <c r="N16" s="41"/>
       <c r="O16" s="23">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -30677,21 +30742,21 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B17" s="43">
+      <c r="B17" s="42">
         <v>1748.19</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="46">
         <v>24.061299999999999</v>
       </c>
-      <c r="D17" s="42"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="23">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="42">
         <v>2200.0300000000002</v>
       </c>
-      <c r="G17" s="43">
+      <c r="G17" s="42">
         <v>17.933399999999999</v>
       </c>
       <c r="H17" s="1"/>
@@ -30699,21 +30764,21 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L17" s="43">
+      <c r="L17" s="42">
         <v>3530.95</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="42">
         <v>28.813700000000001</v>
       </c>
-      <c r="N17" s="42"/>
+      <c r="N17" s="41"/>
       <c r="O17" s="23">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="P17" s="43">
+      <c r="P17" s="42">
         <v>4271.8</v>
       </c>
-      <c r="Q17" s="43">
+      <c r="Q17" s="42">
         <v>16.654900000000001</v>
       </c>
     </row>
@@ -30725,10 +30790,10 @@
       <c r="B18" s="40">
         <v>1753.62</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="45">
         <v>25.7164</v>
       </c>
-      <c r="D18" s="42"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="23">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -30750,7 +30815,7 @@
       <c r="M18" s="40">
         <v>25.604099999999999</v>
       </c>
-      <c r="N18" s="42"/>
+      <c r="N18" s="41"/>
       <c r="O18" s="23">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -30767,21 +30832,21 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B19" s="43">
+      <c r="B19" s="42">
         <v>1739.56</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="46">
         <v>30.1967</v>
       </c>
-      <c r="D19" s="42"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="23">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F19" s="42">
         <v>2159.33</v>
       </c>
-      <c r="G19" s="43">
+      <c r="G19" s="42">
         <v>17.924199999999999</v>
       </c>
       <c r="H19" s="1"/>
@@ -30789,21 +30854,21 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="L19" s="43">
+      <c r="L19" s="42">
         <v>3914.46</v>
       </c>
-      <c r="M19" s="43">
+      <c r="M19" s="42">
         <v>46.750500000000002</v>
       </c>
-      <c r="N19" s="42"/>
+      <c r="N19" s="41"/>
       <c r="O19" s="23">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="P19" s="43">
+      <c r="P19" s="42">
         <v>4301.13</v>
       </c>
-      <c r="Q19" s="43">
+      <c r="Q19" s="42">
         <v>16.923500000000001</v>
       </c>
     </row>
@@ -30815,10 +30880,10 @@
       <c r="B20" s="40">
         <v>1751.51</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="45">
         <v>35.112699999999997</v>
       </c>
-      <c r="D20" s="42"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="23">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -30840,7 +30905,7 @@
       <c r="M20" s="40">
         <v>116.59399999999999</v>
       </c>
-      <c r="N20" s="42"/>
+      <c r="N20" s="41"/>
       <c r="O20" s="23">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -30857,21 +30922,21 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B21" s="43">
+      <c r="B21" s="42">
         <v>1746.56</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="46">
         <v>42.804200000000002</v>
       </c>
-      <c r="D21" s="42"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="23">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="F21" s="43">
+      <c r="F21" s="42">
         <v>2206.4899999999998</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="42">
         <v>17.9146</v>
       </c>
       <c r="H21" s="1"/>
@@ -30879,21 +30944,21 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="L21" s="43">
+      <c r="L21" s="42">
         <v>3581.05</v>
       </c>
-      <c r="M21" s="43">
+      <c r="M21" s="42">
         <v>62.9893</v>
       </c>
-      <c r="N21" s="42"/>
+      <c r="N21" s="41"/>
       <c r="O21" s="23">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="P21" s="43">
+      <c r="P21" s="42">
         <v>4207.21</v>
       </c>
-      <c r="Q21" s="43">
+      <c r="Q21" s="42">
         <v>16.647300000000001</v>
       </c>
     </row>
@@ -30905,15 +30970,15 @@
       <c r="B22" s="40">
         <v>1771.1</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="45">
         <v>62.557400000000001</v>
       </c>
-      <c r="D22" s="42"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="23">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="47">
         <v>2168.1999999999998</v>
       </c>
       <c r="G22" s="40">
@@ -30930,7 +30995,7 @@
       <c r="M22" s="40">
         <v>77.656899999999993</v>
       </c>
-      <c r="N22" s="42"/>
+      <c r="N22" s="41"/>
       <c r="O22" s="23">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -30947,21 +31012,21 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23" s="42">
         <v>1726.64</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="46">
         <v>91.680700000000002</v>
       </c>
-      <c r="D23" s="42"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="23">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="42">
         <v>2169.9</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G23" s="42">
         <v>17.959199999999999</v>
       </c>
       <c r="H23" s="1"/>
@@ -30969,21 +31034,21 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="L23" s="43">
+      <c r="L23" s="42">
         <v>3272.05</v>
       </c>
-      <c r="M23" s="43">
+      <c r="M23" s="42">
         <v>117.206</v>
       </c>
-      <c r="N23" s="42"/>
+      <c r="N23" s="41"/>
       <c r="O23" s="23">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="P23" s="43">
+      <c r="P23" s="42">
         <v>3922.55</v>
       </c>
-      <c r="Q23" s="43">
+      <c r="Q23" s="42">
         <v>13.9499</v>
       </c>
     </row>
@@ -30993,9 +31058,9 @@
         <v>27</v>
       </c>
       <c r="B24" s="40">
-        <v>2000.93</v>
-      </c>
-      <c r="C24" s="44">
+        <v>1777.67</v>
+      </c>
+      <c r="C24" s="46">
         <v>154.137</v>
       </c>
       <c r="E24" s="23">
@@ -31019,7 +31084,7 @@
       <c r="M24" s="40">
         <v>173.14500000000001</v>
       </c>
-      <c r="N24" s="42"/>
+      <c r="N24" s="41"/>
       <c r="O24" s="23">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -31036,21 +31101,21 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B25" s="43">
+      <c r="B25" s="42">
         <v>1752.4</v>
       </c>
-      <c r="C25" s="41">
+      <c r="C25" s="45">
         <v>241.9</v>
       </c>
-      <c r="D25" s="42"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="23">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F25" s="42">
         <v>2195.79</v>
       </c>
-      <c r="G25" s="43">
+      <c r="G25" s="42">
         <v>17.8965</v>
       </c>
       <c r="H25" s="1"/>
@@ -31058,21 +31123,21 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="L25" s="43">
+      <c r="L25" s="42">
         <v>3140.71</v>
       </c>
-      <c r="M25" s="43">
+      <c r="M25" s="42">
         <v>1143.76</v>
       </c>
-      <c r="N25" s="42"/>
+      <c r="N25" s="41"/>
       <c r="O25" s="23">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="P25" s="43">
+      <c r="P25" s="42">
         <v>3933.78</v>
       </c>
-      <c r="Q25" s="43">
+      <c r="Q25" s="42">
         <v>13.9933</v>
       </c>
     </row>
@@ -31084,10 +31149,10 @@
       <c r="B26" s="40">
         <v>1610.18</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="45">
         <v>264.17</v>
       </c>
-      <c r="D26" s="42"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="23">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -31099,6 +31164,10 @@
         <v>17.976900000000001</v>
       </c>
       <c r="H26" s="1"/>
+      <c r="I26" s="20">
+        <f>G28/C28*100</f>
+        <v>26.407441305346296</v>
+      </c>
       <c r="K26" s="23">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -31109,7 +31178,7 @@
       <c r="M26" s="40">
         <v>1773.36</v>
       </c>
-      <c r="N26" s="42"/>
+      <c r="N26" s="41"/>
       <c r="O26" s="23">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -31126,21 +31195,21 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B27" s="43">
+      <c r="B27" s="42">
         <v>1663.74</v>
       </c>
-      <c r="C27" s="44">
+      <c r="C27" s="46">
         <v>266.32299999999998</v>
       </c>
-      <c r="D27" s="42"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="23">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="F27" s="43">
+      <c r="F27" s="42">
         <v>2189.4899999999998</v>
       </c>
-      <c r="G27" s="43">
+      <c r="G27" s="42">
         <v>17.852699999999999</v>
       </c>
       <c r="H27" s="1"/>
@@ -31148,21 +31217,21 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="L27" s="43">
+      <c r="L27" s="42">
         <v>2786.75</v>
       </c>
-      <c r="M27" s="43">
+      <c r="M27" s="42">
         <v>1652.52</v>
       </c>
-      <c r="N27" s="42"/>
+      <c r="N27" s="41"/>
       <c r="O27" s="23">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="P27" s="43">
+      <c r="P27" s="42">
         <v>3878.71</v>
       </c>
-      <c r="Q27" s="43">
+      <c r="Q27" s="42">
         <v>13.9855</v>
       </c>
     </row>
@@ -31172,11 +31241,11 @@
       </c>
       <c r="B28" s="29">
         <f>AVERAGE(B6:B27)</f>
-        <v>1803.9918181818177</v>
+        <v>1741.3822727272725</v>
       </c>
       <c r="C28" s="29">
         <f>AVERAGE(C6:C27)</f>
-        <v>68.726836363636366</v>
+        <v>67.791136363636369</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="28" t="s">
@@ -31191,6 +31260,10 @@
         <v>17.901904545454546</v>
       </c>
       <c r="H28" s="1"/>
+      <c r="I28">
+        <f>B28/F28</f>
+        <v>0.79554569780717466</v>
+      </c>
       <c r="K28" s="28" t="s">
         <v>25</v>
       </c>
@@ -31221,11 +31294,11 @@
       </c>
       <c r="B29" s="29">
         <f>AVEDEV(B6:B27)</f>
-        <v>125.19950413223113</v>
+        <v>25.680950413223172</v>
       </c>
       <c r="C29" s="29">
         <f>AVEDEV(C6:C27)</f>
-        <v>61.325138016528925</v>
+        <v>61.750456198347109</v>
       </c>
       <c r="E29" s="28" t="s">
         <v>26</v>
